--- a/data/suma_class_self_2.xlsx
+++ b/data/suma_class_self_2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10614"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jimwright/Desktop/University of Oregon Courses/Dissertation/Pilot Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jimwright/Desktop/University of Oregon Courses/Dissertation/Pilot Data/summer_pilot/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6EE33D85-CF73-A34C-96DF-31D09644AD42}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0AB0139-AFBF-F948-AE20-7ECE23D7358C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1580" yWindow="1960" windowWidth="26840" windowHeight="14800" xr2:uid="{B4C2AAB9-7800-CA42-8488-83BC77760321}"/>
+    <workbookView xWindow="1580" yWindow="1920" windowWidth="26840" windowHeight="14800" xr2:uid="{B4C2AAB9-7800-CA42-8488-83BC77760321}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="12">
   <si>
     <t>Question</t>
   </si>
@@ -423,7 +423,7 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -451,6 +451,9 @@
       <c r="B2" t="s">
         <v>11</v>
       </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
@@ -459,6 +462,9 @@
       <c r="B3" t="s">
         <v>11</v>
       </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
@@ -467,6 +473,9 @@
       <c r="B4" t="s">
         <v>7</v>
       </c>
+      <c r="C4" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
@@ -475,6 +484,9 @@
       <c r="B5" t="s">
         <v>4</v>
       </c>
+      <c r="C5" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
@@ -483,6 +495,9 @@
       <c r="B6" t="s">
         <v>4</v>
       </c>
+      <c r="C6" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
@@ -490,6 +505,9 @@
       </c>
       <c r="B7" t="s">
         <v>11</v>
+      </c>
+      <c r="C7" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
